--- a/hardware_test_results.xlsx
+++ b/hardware_test_results.xlsx
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI44"/>
+  <dimension ref="A1:AI57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6013,7 +6013,7 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="2" t="n">
-        <v>45858.827567572</v>
+        <v>45858.82756756945</v>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
@@ -6086,11 +6086,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" s="4" t="b">
         <v>1</v>
       </c>
@@ -6132,6 +6128,1639 @@
         <v>0</v>
       </c>
       <c r="AI44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>131</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" s="2" t="n">
+        <v>45858.86823150463</v>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>device_131_log_20250720_205015.txt</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H45" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I45" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J45" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K45" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L45" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M45" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N45" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O45" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P45" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q45" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R45" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S45" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="n">
+        <v>112</v>
+      </c>
+      <c r="X45" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>53</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>112</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>129</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" s="2" t="n">
+        <v>45858.87276427083</v>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>device_129_log_20250720_205646.txt</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H46" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I46" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J46" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K46" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L46" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M46" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N46" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="O46" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P46" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q46" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R46" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S46" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>T09(USB MicroPython Detection)</t>
+        </is>
+      </c>
+      <c r="U46" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="n">
+        <v>105</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>305</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>129</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" s="2" t="n">
+        <v>45858.88088793981</v>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>device_129_log_20250720_210828.txt</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="H47" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="I47" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="J47" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="K47" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="L47" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="M47" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="N47" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O47" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P47" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q47" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R47" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S47" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>133</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" s="2" t="n">
+        <v>45858.88614775463</v>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>device_133_log_20250720_211603.txt</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H48" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I48" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J48" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K48" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L48" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M48" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N48" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O48" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P48" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q48" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R48" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S48" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="n">
+        <v>106</v>
+      </c>
+      <c r="X48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>235</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>135</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" s="2" t="n">
+        <v>45858.8954505787</v>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>device_135_log_20250720_212926.txt</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H49" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I49" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J49" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K49" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L49" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M49" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N49" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O49" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P49" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q49" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R49" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S49" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="n">
+        <v>104</v>
+      </c>
+      <c r="X49" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>76</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>136</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" s="2" t="n">
+        <v>45858.89904393518</v>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>device_136_log_20250720_213437.txt</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H50" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I50" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J50" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K50" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L50" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M50" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N50" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O50" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P50" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q50" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R50" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S50" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="n">
+        <v>103</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>158</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>132</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" s="2" t="n">
+        <v>45858.90314069444</v>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>device_132_log_20250720_214031.txt</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H51" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I51" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J51" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K51" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L51" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M51" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N51" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O51" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P51" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q51" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R51" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S51" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="n">
+        <v>105</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>43</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>68</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>134</v>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" s="2" t="n">
+        <v>45858.9067153125</v>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>device_134_log_20250720_214540.txt</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H52" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I52" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J52" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K52" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L52" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M52" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N52" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O52" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P52" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q52" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R52" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S52" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="n">
+        <v>104</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>307</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>346</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>130</v>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" s="2" t="n">
+        <v>45858.91656236111</v>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>device_130_log_20250720_215950.txt</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H53" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I53" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J53" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K53" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L53" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M53" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N53" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O53" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P53" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q53" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R53" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S53" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="n">
+        <v>105</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>309</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>8</v>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" s="2" t="n">
+        <v>45858.92431826389</v>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>device_8_log_20250720_221101.txt</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H54" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I54" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J54" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K54" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L54" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M54" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N54" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O54" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P54" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q54" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R54" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S54" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="n">
+        <v>105</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>368</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>6</v>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" s="2" t="n">
+        <v>45858.93253128472</v>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>device_6_log_20250720_222250.txt</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H55" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I55" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J55" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K55" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L55" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M55" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N55" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O55" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P55" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q55" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R55" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S55" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="n">
+        <v>105</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>152</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>4</v>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" s="2" t="n">
+        <v>45858.93871885417</v>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>device_4_log_20250720_223145.txt</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H56" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I56" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J56" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K56" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L56" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M56" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N56" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O56" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P56" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q56" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R56" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S56" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="n">
+        <v>105</v>
+      </c>
+      <c r="X56" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>192</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" s="2" t="n">
+        <v>45858.94316543975</v>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>device_2_log_20250720_223809.txt</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H57" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I57" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J57" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K57" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L57" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M57" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N57" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O57" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P57" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q57" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R57" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S57" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U57" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="n">
+        <v>104</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>94</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>48</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI57" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6180,6 +7809,19 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E42" r:id="rId41"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E43" r:id="rId42"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E44" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E45" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E46" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E47" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E48" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E49" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E50" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E51" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E52" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E53" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E54" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E55" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E56" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E57" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/hardware_test_results.xlsx
+++ b/hardware_test_results.xlsx
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI57"/>
+  <dimension ref="A1:AI113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
     <col width="23" customWidth="1" min="19" max="19"/>
     <col width="56" customWidth="1" min="20" max="20"/>
     <col width="14" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="24" customWidth="1" min="22" max="22"/>
     <col width="18" customWidth="1" min="23" max="23"/>
     <col width="18" customWidth="1" min="24" max="24"/>
     <col width="18" customWidth="1" min="25" max="25"/>
@@ -7642,7 +7642,7 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" s="2" t="n">
-        <v>45858.94316543975</v>
+        <v>45858.94316543981</v>
       </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
@@ -7715,11 +7715,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="T57" t="inlineStr"/>
       <c r="U57" s="4" t="b">
         <v>1</v>
       </c>
@@ -7761,6 +7757,7090 @@
         <v>1</v>
       </c>
       <c r="AI57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>13</v>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" s="2" t="n">
+        <v>45858.94694090278</v>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>device_13_log_20250720_224335.txt</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H58" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I58" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J58" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K58" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L58" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M58" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N58" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O58" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P58" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q58" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R58" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S58" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="n">
+        <v>104</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>297</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7</v>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" s="2" t="n">
+        <v>45858.95276194444</v>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>device_7_log_20250720_225158.txt</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H59" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I59" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J59" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K59" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L59" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M59" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N59" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O59" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P59" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q59" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R59" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S59" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="n">
+        <v>122</v>
+      </c>
+      <c r="X59" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" s="2" t="n">
+        <v>45858.95589850695</v>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>device_7_log_20250720_225629.txt</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H60" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I60" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J60" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K60" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L60" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M60" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N60" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O60" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P60" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q60" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R60" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S60" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="n">
+        <v>103</v>
+      </c>
+      <c r="X60" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>390</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" s="2" t="n">
+        <v>45858.96249586806</v>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>device_1_log_20250720_230559.txt</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H61" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I61" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J61" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K61" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L61" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M61" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N61" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O61" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P61" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q61" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R61" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S61" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="n">
+        <v>106</v>
+      </c>
+      <c r="X61" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>64</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>56</v>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" s="2" t="n">
+        <v>45858.96537616898</v>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>device_56_log_20250720_231008.txt</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H62" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I62" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J62" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K62" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L62" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M62" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N62" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O62" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P62" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q62" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R62" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S62" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="n">
+        <v>105</v>
+      </c>
+      <c r="X62" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>54</v>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" s="2" t="n">
+        <v>45858.96936873843</v>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>device_54_log_20250720_231553.txt</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="H63" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="I63" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="J63" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="K63" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="L63" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="M63" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="N63" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="O63" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="P63" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="Q63" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="R63" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="S63" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>T01(Firmware Upload)</t>
+        </is>
+      </c>
+      <c r="U63" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Firmware upload failed</t>
+        </is>
+      </c>
+      <c r="W63" t="n">
+        <v>60</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>54</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" s="2" t="n">
+        <v>45858.97087739583</v>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>device_54_log_20250720_231803.txt</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="H64" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="I64" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="J64" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="K64" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="L64" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="M64" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="N64" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="O64" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="P64" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="Q64" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="R64" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="S64" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>T01(Firmware Upload)</t>
+        </is>
+      </c>
+      <c r="U64" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Firmware upload failed</t>
+        </is>
+      </c>
+      <c r="W64" t="n">
+        <v>60</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>54</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" s="2" t="n">
+        <v>45858.9720177662</v>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>device_54_log_20250720_231942.txt</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="H65" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="I65" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="J65" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="K65" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="L65" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="M65" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="N65" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="O65" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="P65" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="Q65" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="R65" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="S65" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>T01(Firmware Upload)</t>
+        </is>
+      </c>
+      <c r="U65" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Firmware upload failed</t>
+        </is>
+      </c>
+      <c r="W65" t="n">
+        <v>60</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>50</v>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" s="2" t="n">
+        <v>45858.97455138889</v>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>device_50_log_20250720_232321.txt</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H66" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I66" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J66" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K66" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L66" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M66" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N66" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O66" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P66" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q66" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R66" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S66" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="n">
+        <v>107</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>63</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>76</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>52</v>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" s="2" t="n">
+        <v>45858.97813748843</v>
+      </c>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t>device_52_log_20250720_232831.txt</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H67" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I67" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J67" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K67" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L67" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M67" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N67" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O67" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P67" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q67" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R67" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S67" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="n">
+        <v>105</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>55</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" s="2" t="n">
+        <v>45858.98100815972</v>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>device_55_log_20250720_233239.txt</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H68" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I68" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J68" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K68" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L68" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M68" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N68" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O68" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P68" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q68" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R68" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S68" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="n">
+        <v>103</v>
+      </c>
+      <c r="X68" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>43</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>53</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" s="2" t="n">
+        <v>45858.98353975695</v>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>device_53_log_20250720_233617.txt</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H69" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I69" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J69" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K69" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L69" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M69" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N69" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O69" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P69" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q69" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R69" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S69" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="n">
+        <v>105</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>104</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>51</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" s="2" t="n">
+        <v>45858.98706907407</v>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>device_51_log_20250720_234122.txt</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H70" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I70" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J70" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K70" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L70" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M70" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N70" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O70" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P70" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q70" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R70" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S70" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="n">
+        <v>105</v>
+      </c>
+      <c r="X70" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>49</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" s="2" t="n">
+        <v>45858.99001731481</v>
+      </c>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>device_49_log_20250720_234537.txt</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H71" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I71" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J71" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K71" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L71" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M71" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N71" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O71" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P71" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q71" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R71" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S71" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="n">
+        <v>105</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>84</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>119</v>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" s="2" t="n">
+        <v>45859.03628612268</v>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>device_119_log_20250721_005215.txt</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H72" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I72" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J72" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K72" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L72" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M72" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N72" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O72" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P72" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q72" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R72" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S72" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="n">
+        <v>105</v>
+      </c>
+      <c r="X72" t="n">
+        <v>57</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>49</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>113</v>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" s="2" t="n">
+        <v>45859.03969571759</v>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>device_113_log_20250721_005709.txt</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H73" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I73" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J73" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K73" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L73" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M73" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N73" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O73" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P73" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q73" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R73" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S73" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="n">
+        <v>126</v>
+      </c>
+      <c r="X73" t="n">
+        <v>53</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>47</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>73</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>117</v>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" s="2" t="n">
+        <v>45859.04358186343</v>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>device_117_log_20250721_010245.txt</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H74" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I74" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J74" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K74" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L74" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M74" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N74" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O74" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P74" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q74" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R74" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S74" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="n">
+        <v>103</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>115</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" s="2" t="n">
+        <v>45859.04615777778</v>
+      </c>
+      <c r="E75" s="3" t="inlineStr">
+        <is>
+          <t>device_115_log_20250721_010628.txt</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H75" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I75" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J75" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K75" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L75" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M75" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N75" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O75" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P75" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q75" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R75" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S75" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="n">
+        <v>106</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>216</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>120</v>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" s="2" t="n">
+        <v>45859.05130115741</v>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>device_120_log_20250721_011352.txt</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H76" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I76" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J76" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K76" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L76" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M76" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N76" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O76" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P76" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q76" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R76" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S76" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="n">
+        <v>105</v>
+      </c>
+      <c r="X76" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>57</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>66</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>114</v>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" s="2" t="n">
+        <v>45859.0554305324</v>
+      </c>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>device_114_log_20250721_011949.txt</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H77" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I77" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J77" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K77" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L77" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M77" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N77" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O77" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P77" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q77" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R77" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S77" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="n">
+        <v>105</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>116</v>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" s="2" t="n">
+        <v>45859.05826869213</v>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>device_116_log_20250721_012354.txt</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H78" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I78" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J78" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K78" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L78" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M78" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N78" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O78" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P78" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q78" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R78" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S78" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="n">
+        <v>105</v>
+      </c>
+      <c r="X78" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>85</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>118</v>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" s="2" t="n">
+        <v>45859.06150005787</v>
+      </c>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>device_118_log_20250721_012833.txt</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="H79" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="I79" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="J79" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="K79" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="L79" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="M79" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="N79" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="O79" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="P79" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="Q79" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="R79" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="S79" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>T01(Firmware Upload)</t>
+        </is>
+      </c>
+      <c r="U79" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Firmware upload failed</t>
+        </is>
+      </c>
+      <c r="W79" t="n">
+        <v>60</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>118</v>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" s="2" t="n">
+        <v>45859.06249464121</v>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>device_118_log_20250721_012959.txt</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="H80" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="I80" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="J80" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="K80" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="L80" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="M80" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="N80" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="O80" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="P80" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="Q80" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="R80" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="S80" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>T01(Firmware Upload)</t>
+        </is>
+      </c>
+      <c r="U80" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Firmware upload failed</t>
+        </is>
+      </c>
+      <c r="W80" t="n">
+        <v>60</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>175</v>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" s="2" t="n">
+        <v>45859.06389054398</v>
+      </c>
+      <c r="E81" s="3" t="inlineStr">
+        <is>
+          <t>device_175_log_20250721_013200.txt</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H81" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I81" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J81" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K81" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L81" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M81" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N81" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O81" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P81" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q81" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R81" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S81" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="n">
+        <v>105</v>
+      </c>
+      <c r="X81" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>71</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>169</v>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" s="2" t="n">
+        <v>45859.06766859953</v>
+      </c>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>device_169_log_20250721_013726.txt</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H82" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I82" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J82" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K82" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L82" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M82" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N82" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O82" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P82" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q82" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R82" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S82" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="n">
+        <v>104</v>
+      </c>
+      <c r="X82" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>128</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>188</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>171</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" s="2" t="n">
+        <v>45859.07334337963</v>
+      </c>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>device_171_log_20250721_014536.txt</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H83" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I83" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J83" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K83" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L83" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M83" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N83" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O83" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P83" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q83" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R83" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S83" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="n">
+        <v>105</v>
+      </c>
+      <c r="X83" t="n">
+        <v>87</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>156</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>173</v>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" s="2" t="n">
+        <v>45859.07877150463</v>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>device_173_log_20250721_015325.txt</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H84" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I84" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J84" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K84" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L84" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M84" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N84" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O84" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P84" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q84" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R84" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S84" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="n">
+        <v>105</v>
+      </c>
+      <c r="X84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>79</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>176</v>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" s="2" t="n">
+        <v>45859.08270240741</v>
+      </c>
+      <c r="E85" s="3" t="inlineStr">
+        <is>
+          <t>device_176_log_20250721_015905.txt</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H85" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I85" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J85" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K85" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L85" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M85" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N85" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O85" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P85" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q85" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R85" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S85" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="n">
+        <v>106</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>54</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>174</v>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" s="2" t="n">
+        <v>45859.08568200232</v>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>device_174_log_20250721_020322.txt</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H86" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I86" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J86" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K86" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L86" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M86" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N86" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O86" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P86" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q86" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R86" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S86" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="n">
+        <v>105</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>74</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>172</v>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" s="2" t="n">
+        <v>45859.08900686343</v>
+      </c>
+      <c r="E87" s="3" t="inlineStr">
+        <is>
+          <t>device_172_log_20250721_020810.txt</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="H87" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="I87" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="J87" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="K87" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="L87" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="M87" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="N87" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="O87" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="P87" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="Q87" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="R87" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="S87" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>T01(Firmware Upload)</t>
+        </is>
+      </c>
+      <c r="U87" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Firmware upload failed</t>
+        </is>
+      </c>
+      <c r="W87" t="n">
+        <v>21</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>172</v>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" s="2" t="n">
+        <v>45859.09047024306</v>
+      </c>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>device_172_log_20250721_021016.txt</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="H88" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="I88" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="J88" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="K88" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="L88" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="M88" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="N88" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="O88" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="P88" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="Q88" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="R88" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="S88" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>T01(Firmware Upload)</t>
+        </is>
+      </c>
+      <c r="U88" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>Firmware upload failed</t>
+        </is>
+      </c>
+      <c r="W88" t="n">
+        <v>60</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>170</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" s="2" t="n">
+        <v>45859.09146818287</v>
+      </c>
+      <c r="E89" s="3" t="inlineStr">
+        <is>
+          <t>device_170_log_20250721_021142.txt</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H89" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I89" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J89" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K89" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L89" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M89" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N89" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O89" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P89" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q89" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R89" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S89" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="n">
+        <v>105</v>
+      </c>
+      <c r="X89" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>105</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>49</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>222</v>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" s="2" t="n">
+        <v>45859.09524592593</v>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>device_222_log_20250721_021709.txt</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H90" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I90" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J90" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K90" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L90" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M90" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N90" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O90" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P90" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q90" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R90" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S90" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="n">
+        <v>105</v>
+      </c>
+      <c r="X90" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>104</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>224</v>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" s="2" t="n">
+        <v>45859.09881069444</v>
+      </c>
+      <c r="E91" s="3" t="inlineStr">
+        <is>
+          <t>device_224_log_20250721_022217.txt</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H91" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I91" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J91" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K91" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L91" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M91" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N91" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O91" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P91" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q91" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R91" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="S91" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>T13(SD Card Detection)</t>
+        </is>
+      </c>
+      <c r="U91" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="n">
+        <v>105</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>93</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>220</v>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" s="2" t="n">
+        <v>45859.10344217593</v>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>device_220_log_20250721_022857.txt</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H92" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I92" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J92" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K92" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L92" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M92" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N92" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O92" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P92" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q92" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R92" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S92" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="n">
+        <v>103</v>
+      </c>
+      <c r="X92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>218</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" s="2" t="n">
+        <v>45859.10620732639</v>
+      </c>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>device_218_log_20250721_023256.txt</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H93" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I93" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J93" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K93" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L93" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M93" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N93" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O93" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P93" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q93" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R93" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S93" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="n">
+        <v>105</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>221</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" s="2" t="n">
+        <v>45859.10973350694</v>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>device_221_log_20250721_023800.txt</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H94" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I94" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J94" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K94" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L94" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M94" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N94" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O94" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P94" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q94" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R94" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S94" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="n">
+        <v>103</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>223</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" s="2" t="n">
+        <v>45859.11549126157</v>
+      </c>
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>device_223_log_20250721_024618.txt</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H95" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I95" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J95" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K95" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L95" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M95" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N95" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O95" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P95" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q95" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R95" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S95" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="n">
+        <v>106</v>
+      </c>
+      <c r="X95" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>148</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>217</v>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" s="2" t="n">
+        <v>45859.11936175926</v>
+      </c>
+      <c r="E96" s="3" t="inlineStr">
+        <is>
+          <t>device_217_log_20250721_025152.txt</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H96" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I96" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J96" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K96" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L96" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M96" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N96" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O96" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P96" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q96" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R96" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S96" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="n">
+        <v>107</v>
+      </c>
+      <c r="X96" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>219</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" s="2" t="n">
+        <v>45859.12210341435</v>
+      </c>
+      <c r="E97" s="3" t="inlineStr">
+        <is>
+          <t>device_219_log_20250721_025549.txt</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H97" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I97" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J97" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K97" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L97" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M97" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N97" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O97" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P97" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q97" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R97" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S97" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="n">
+        <v>106</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>40</v>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" s="2" t="n">
+        <v>45859.12732263889</v>
+      </c>
+      <c r="E98" s="3" t="inlineStr">
+        <is>
+          <t>device_40_log_20250721_030320.txt</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H98" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I98" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J98" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K98" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L98" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M98" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N98" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O98" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P98" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q98" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R98" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S98" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="n">
+        <v>154</v>
+      </c>
+      <c r="X98" t="n">
+        <v>225</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>38</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" s="2" t="n">
+        <v>45859.13297474537</v>
+      </c>
+      <c r="E99" s="3" t="inlineStr">
+        <is>
+          <t>device_38_log_20250721_031129.txt</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H99" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I99" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J99" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K99" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L99" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M99" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N99" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O99" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P99" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q99" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R99" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S99" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="n">
+        <v>106</v>
+      </c>
+      <c r="X99" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>140</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>34</v>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" s="2" t="n">
+        <v>45859.1366183912</v>
+      </c>
+      <c r="E100" s="3" t="inlineStr">
+        <is>
+          <t>device_34_log_20250721_031643.txt</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H100" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I100" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J100" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K100" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L100" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M100" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N100" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="O100" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P100" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q100" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R100" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S100" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>T09(USB MicroPython Detection)</t>
+        </is>
+      </c>
+      <c r="U100" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="n">
+        <v>113</v>
+      </c>
+      <c r="X100" t="n">
+        <v>132</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>36</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" s="2" t="n">
+        <v>45859.14041306713</v>
+      </c>
+      <c r="E101" s="3" t="inlineStr">
+        <is>
+          <t>device_36_log_20250721_032211.txt</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H101" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I101" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J101" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K101" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L101" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M101" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N101" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O101" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P101" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q101" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R101" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S101" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="n">
+        <v>138</v>
+      </c>
+      <c r="X101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>58</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>39</v>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" s="2" t="n">
+        <v>45859.14357153935</v>
+      </c>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>device_39_log_20250721_032644.txt</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H102" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I102" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J102" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K102" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L102" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M102" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N102" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O102" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P102" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q102" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R102" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S102" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="n">
+        <v>113</v>
+      </c>
+      <c r="X102" t="n">
+        <v>54</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>37</v>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" s="2" t="n">
+        <v>45859.14641547453</v>
+      </c>
+      <c r="E103" s="3" t="inlineStr">
+        <is>
+          <t>device_37_log_20250721_033050.txt</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H103" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I103" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J103" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K103" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L103" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M103" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N103" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O103" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P103" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q103" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R103" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S103" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="n">
+        <v>103</v>
+      </c>
+      <c r="X103" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>155</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>33</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" s="2" t="n">
+        <v>45859.15060086806</v>
+      </c>
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>device_33_log_20250721_033651.txt</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H104" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I104" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J104" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K104" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L104" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M104" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N104" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O104" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P104" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q104" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R104" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S104" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="n">
+        <v>105</v>
+      </c>
+      <c r="X104" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>35</v>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" s="2" t="n">
+        <v>45859.15376535879</v>
+      </c>
+      <c r="E105" s="3" t="inlineStr">
+        <is>
+          <t>device_35_log_20250721_034125.txt</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H105" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I105" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J105" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K105" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L105" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M105" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N105" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O105" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P105" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q105" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R105" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S105" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="n">
+        <v>105</v>
+      </c>
+      <c r="X105" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>54</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>88</v>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" s="2" t="n">
+        <v>45859.15769677083</v>
+      </c>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>device_88_log_20250721_034705.txt</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="H106" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="I106" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="J106" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="K106" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="L106" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="M106" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="N106" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="O106" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="P106" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="Q106" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="R106" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="S106" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>T01(Firmware Upload)</t>
+        </is>
+      </c>
+      <c r="U106" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>Firmware upload failed</t>
+        </is>
+      </c>
+      <c r="W106" t="n">
+        <v>16</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>88</v>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" s="2" t="n">
+        <v>45859.15858744213</v>
+      </c>
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>device_88_log_20250721_034821.txt</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="H107" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="I107" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="J107" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="K107" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="L107" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="M107" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="N107" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="O107" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="P107" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="Q107" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="R107" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="S107" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>T01(Firmware Upload)</t>
+        </is>
+      </c>
+      <c r="U107" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>Firmware upload failed</t>
+        </is>
+      </c>
+      <c r="W107" t="n">
+        <v>60</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>82</v>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" s="2" t="n">
+        <v>45859.15976275463</v>
+      </c>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>device_82_log_20250721_035003.txt</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H108" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I108" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J108" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K108" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L108" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M108" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N108" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O108" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P108" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q108" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R108" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S108" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="n">
+        <v>153</v>
+      </c>
+      <c r="X108" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>148</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>84</v>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" s="2" t="n">
+        <v>45859.16537113426</v>
+      </c>
+      <c r="E109" s="3" t="inlineStr">
+        <is>
+          <t>device_84_log_20250721_035808.txt</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H109" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I109" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J109" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K109" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L109" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M109" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N109" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O109" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P109" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q109" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R109" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S109" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="n">
+        <v>112</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>86</v>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" s="2" t="n">
+        <v>45859.16936868055</v>
+      </c>
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>device_86_log_20250721_040353.txt</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H110" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I110" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J110" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K110" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L110" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M110" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N110" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O110" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P110" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q110" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R110" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S110" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="n">
+        <v>105</v>
+      </c>
+      <c r="X110" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>393</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>85</v>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" s="2" t="n">
+        <v>45859.17771427083</v>
+      </c>
+      <c r="E111" s="3" t="inlineStr">
+        <is>
+          <t>device_85_log_20250721_041554.txt</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H111" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I111" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J111" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K111" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L111" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M111" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N111" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O111" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P111" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q111" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R111" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S111" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="n">
+        <v>105</v>
+      </c>
+      <c r="X111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>220</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>87</v>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" s="2" t="n">
+        <v>45859.18302969907</v>
+      </c>
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>device_87_log_20250721_042333.txt</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H112" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I112" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J112" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K112" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L112" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M112" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N112" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O112" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P112" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q112" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R112" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S112" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="n">
+        <v>104</v>
+      </c>
+      <c r="X112" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>139</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>81</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" s="2" t="n">
+        <v>45859.18717286766</v>
+      </c>
+      <c r="E113" s="3" t="inlineStr">
+        <is>
+          <t>device_81_log_20250721_042931.txt</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H113" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I113" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J113" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K113" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L113" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M113" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N113" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O113" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P113" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q113" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R113" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S113" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U113" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="n">
+        <v>118</v>
+      </c>
+      <c r="X113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI113" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7822,6 +14902,62 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E55" r:id="rId54"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E56" r:id="rId55"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E57" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E58" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E59" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E60" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E61" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E62" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E63" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E64" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E65" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E66" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E67" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E68" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E69" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E70" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E71" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E72" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E73" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E74" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E75" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E76" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E77" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E78" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E79" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E80" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E81" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E82" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E83" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E84" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E85" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E86" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E87" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E88" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E89" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E90" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E91" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E92" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E93" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E94" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E95" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E96" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E97" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E98" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E99" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E100" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E101" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E102" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E103" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E104" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E105" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E106" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E107" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E108" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E109" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E110" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E111" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E112" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E113" r:id="rId112"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/hardware_test_results.xlsx
+++ b/hardware_test_results.xlsx
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI113"/>
+  <dimension ref="A1:AI168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14722,7 +14722,7 @@
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" s="2" t="n">
-        <v>45859.18717286766</v>
+        <v>45859.18717287037</v>
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
@@ -14795,11 +14795,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="T113" t="inlineStr"/>
       <c r="U113" s="4" t="b">
         <v>1</v>
       </c>
@@ -14841,6 +14837,6917 @@
         <v>1</v>
       </c>
       <c r="AI113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>83</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" s="2" t="n">
+        <v>45859.37238543981</v>
+      </c>
+      <c r="E114" s="3" t="inlineStr">
+        <is>
+          <t>device_83_log_20250721_085614.txt</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H114" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I114" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J114" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K114" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L114" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M114" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N114" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O114" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P114" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q114" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R114" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S114" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="n">
+        <v>105</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>162</v>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" s="2" t="n">
+        <v>45859.3766340162</v>
+      </c>
+      <c r="E115" s="3" t="inlineStr">
+        <is>
+          <t>device_162_log_20250721_090221.txt</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H115" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I115" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J115" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K115" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L115" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M115" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N115" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O115" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P115" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q115" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R115" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S115" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="n">
+        <v>105</v>
+      </c>
+      <c r="X115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>59</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>164</v>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" s="2" t="n">
+        <v>45859.38052011574</v>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>device_164_log_20250721_090756.txt</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H116" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I116" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J116" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K116" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L116" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M116" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N116" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O116" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P116" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q116" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R116" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S116" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="n">
+        <v>105</v>
+      </c>
+      <c r="X116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>166</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" s="2" t="n">
+        <v>45859.38348975695</v>
+      </c>
+      <c r="E117" s="3" t="inlineStr">
+        <is>
+          <t>device_166_log_20250721_091213.txt</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H117" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I117" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J117" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K117" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L117" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M117" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N117" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O117" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P117" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q117" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R117" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S117" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="n">
+        <v>106</v>
+      </c>
+      <c r="X117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>168</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" s="2" t="n">
+        <v>45859.3861508449</v>
+      </c>
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>device_168_log_20250721_091603.txt</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H118" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I118" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J118" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K118" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L118" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M118" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N118" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O118" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P118" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q118" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R118" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S118" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="n">
+        <v>105</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>78</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>161</v>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" s="2" t="n">
+        <v>45859.38912462963</v>
+      </c>
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>device_161_log_20250721_092020.txt</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H119" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I119" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J119" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K119" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L119" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M119" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N119" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O119" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P119" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q119" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R119" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S119" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="n">
+        <v>105</v>
+      </c>
+      <c r="X119" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>61</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>163</v>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" s="2" t="n">
+        <v>45859.39306334491</v>
+      </c>
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>device_163_log_20250721_092600.txt</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H120" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I120" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J120" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K120" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L120" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M120" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N120" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O120" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P120" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q120" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R120" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S120" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="n">
+        <v>105</v>
+      </c>
+      <c r="X120" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>108</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>167</v>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" s="2" t="n">
+        <v>45859.39666555556</v>
+      </c>
+      <c r="E121" s="3" t="inlineStr">
+        <is>
+          <t>device_167_log_20250721_093111.txt</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H121" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I121" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J121" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K121" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L121" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M121" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N121" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O121" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P121" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q121" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R121" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S121" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="n">
+        <v>109</v>
+      </c>
+      <c r="X121" t="n">
+        <v>125</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>165</v>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" s="2" t="n">
+        <v>45859.40009849537</v>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>device_165_log_20250721_093608.txt</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H122" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I122" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J122" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K122" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L122" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M122" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N122" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O122" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P122" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q122" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R122" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S122" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="n">
+        <v>105</v>
+      </c>
+      <c r="X122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>184</v>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" s="2" t="n">
+        <v>45859.43181413195</v>
+      </c>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>device_184_log_20250721_102148.txt</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H123" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I123" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J123" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K123" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L123" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M123" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="N123" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O123" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P123" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q123" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R123" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S123" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>T07(Voice Transcribed)</t>
+        </is>
+      </c>
+      <c r="U123" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="n">
+        <v>105</v>
+      </c>
+      <c r="X123" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>298</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>215</v>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" s="2" t="n">
+        <v>45859.43836584491</v>
+      </c>
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>device_215_log_20250721_103114.txt</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H124" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I124" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J124" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K124" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L124" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M124" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N124" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O124" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P124" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q124" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R124" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S124" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="n">
+        <v>105</v>
+      </c>
+      <c r="X124" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>178</v>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" s="2" t="n">
+        <v>45859.44127741898</v>
+      </c>
+      <c r="E125" s="3" t="inlineStr">
+        <is>
+          <t>device_178_log_20250721_103526.txt</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H125" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I125" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J125" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K125" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L125" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M125" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N125" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O125" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P125" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q125" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R125" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S125" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="n">
+        <v>105</v>
+      </c>
+      <c r="X125" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>216</v>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" s="2" t="n">
+        <v>45859.44381292824</v>
+      </c>
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>device_216_log_20250721_103905.txt</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H126" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I126" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J126" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K126" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L126" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M126" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N126" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O126" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P126" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q126" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R126" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S126" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="n">
+        <v>104</v>
+      </c>
+      <c r="X126" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>213</v>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" s="2" t="n">
+        <v>45859.44632836805</v>
+      </c>
+      <c r="E127" s="3" t="inlineStr">
+        <is>
+          <t>device_213_log_20250721_104242.txt</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H127" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I127" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J127" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K127" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L127" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M127" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N127" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O127" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P127" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q127" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R127" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S127" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="n">
+        <v>111</v>
+      </c>
+      <c r="X127" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>214</v>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" s="2" t="n">
+        <v>45859.44907123843</v>
+      </c>
+      <c r="E128" s="3" t="inlineStr">
+        <is>
+          <t>device_214_log_20250721_104639.txt</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H128" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I128" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J128" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K128" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L128" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M128" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N128" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O128" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P128" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q128" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R128" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S128" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="n">
+        <v>105</v>
+      </c>
+      <c r="X128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>43</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>211</v>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" s="2" t="n">
+        <v>45859.45151900463</v>
+      </c>
+      <c r="E129" s="3" t="inlineStr">
+        <is>
+          <t>device_211_log_20250721_105011.txt</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H129" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I129" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J129" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K129" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L129" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M129" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N129" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O129" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P129" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q129" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R129" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S129" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="n">
+        <v>105</v>
+      </c>
+      <c r="X129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>212</v>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" s="2" t="n">
+        <v>45859.45405689815</v>
+      </c>
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t>device_212_log_20250721_105350.txt</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H130" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I130" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J130" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K130" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L130" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M130" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N130" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O130" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P130" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q130" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R130" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S130" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="n">
+        <v>107</v>
+      </c>
+      <c r="X130" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>117</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>151</v>
+      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" s="2" t="n">
+        <v>45859.45808260416</v>
+      </c>
+      <c r="E131" s="3" t="inlineStr">
+        <is>
+          <t>device_151_log_20250721_105938.txt</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H131" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I131" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J131" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K131" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L131" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M131" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N131" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O131" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P131" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q131" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R131" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S131" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="n">
+        <v>105</v>
+      </c>
+      <c r="X131" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>175</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>152</v>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" s="2" t="n">
+        <v>45859.46284976852</v>
+      </c>
+      <c r="E132" s="3" t="inlineStr">
+        <is>
+          <t>device_152_log_20250721_110630.txt</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H132" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I132" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J132" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K132" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L132" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M132" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N132" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O132" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P132" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q132" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R132" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S132" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="n">
+        <v>106</v>
+      </c>
+      <c r="X132" t="n">
+        <v>61</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>112</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>149</v>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" s="2" t="n">
+        <v>45859.46937846065</v>
+      </c>
+      <c r="E133" s="3" t="inlineStr">
+        <is>
+          <t>device_149_log_20250721_111554.txt</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H133" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I133" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J133" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K133" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L133" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M133" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N133" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O133" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P133" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q133" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R133" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S133" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="n">
+        <v>104</v>
+      </c>
+      <c r="X133" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>115</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>150</v>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" s="2" t="n">
+        <v>45859.47359351852</v>
+      </c>
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>device_150_log_20250721_112158.txt</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H134" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I134" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J134" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K134" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L134" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M134" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N134" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O134" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P134" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q134" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R134" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S134" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T134" t="inlineStr"/>
+      <c r="U134" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="n">
+        <v>105</v>
+      </c>
+      <c r="X134" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>39</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>147</v>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" s="2" t="n">
+        <v>45859.47603587963</v>
+      </c>
+      <c r="E135" s="3" t="inlineStr">
+        <is>
+          <t>device_147_log_20250721_112529.txt</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H135" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I135" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J135" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K135" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L135" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M135" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N135" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O135" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P135" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q135" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R135" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S135" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="n">
+        <v>105</v>
+      </c>
+      <c r="X135" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>33</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>148</v>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" s="2" t="n">
+        <v>45859.47853429398</v>
+      </c>
+      <c r="E136" s="3" t="inlineStr">
+        <is>
+          <t>device_148_log_20250721_112905.txt</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H136" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I136" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J136" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K136" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L136" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M136" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N136" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O136" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P136" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q136" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R136" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S136" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="n">
+        <v>106</v>
+      </c>
+      <c r="X136" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>160</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>145</v>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" s="2" t="n">
+        <v>45859.48447318287</v>
+      </c>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>device_145_log_20250721_113738.txt</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H137" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I137" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J137" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K137" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L137" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M137" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N137" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O137" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P137" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q137" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R137" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S137" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="n">
+        <v>105</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>43</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>146</v>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" s="2" t="n">
+        <v>45859.4877053125</v>
+      </c>
+      <c r="E138" s="3" t="inlineStr">
+        <is>
+          <t>device_146_log_20250721_114217.txt</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H138" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I138" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J138" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K138" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L138" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M138" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N138" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O138" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P138" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q138" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R138" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S138" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="n">
+        <v>105</v>
+      </c>
+      <c r="X138" t="n">
+        <v>87</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>180</v>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" s="2" t="n">
+        <v>45859.49043356482</v>
+      </c>
+      <c r="E139" s="3" t="inlineStr">
+        <is>
+          <t>device_180_log_20250721_114613.txt</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H139" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I139" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J139" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K139" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L139" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M139" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N139" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O139" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P139" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q139" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R139" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S139" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="n">
+        <v>105</v>
+      </c>
+      <c r="X139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>182</v>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" s="2" t="n">
+        <v>45859.49327525463</v>
+      </c>
+      <c r="E140" s="3" t="inlineStr">
+        <is>
+          <t>device_182_log_20250721_115018.txt</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H140" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I140" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J140" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K140" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L140" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M140" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N140" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O140" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P140" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q140" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R140" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S140" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="n">
+        <v>105</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>49</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>183</v>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" s="2" t="n">
+        <v>45859.49598269676</v>
+      </c>
+      <c r="E141" s="3" t="inlineStr">
+        <is>
+          <t>device_183_log_20250721_115412.txt</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H141" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I141" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J141" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K141" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L141" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M141" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N141" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O141" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P141" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q141" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R141" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S141" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="n">
+        <v>105</v>
+      </c>
+      <c r="X141" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>179</v>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" s="2" t="n">
+        <v>45859.49843372685</v>
+      </c>
+      <c r="E142" s="3" t="inlineStr">
+        <is>
+          <t>device_179_log_20250721_115744.txt</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H142" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I142" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J142" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K142" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L142" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M142" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N142" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O142" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P142" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q142" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R142" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S142" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="n">
+        <v>103</v>
+      </c>
+      <c r="X142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>177</v>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" s="2" t="n">
+        <v>45859.50131118055</v>
+      </c>
+      <c r="E143" s="3" t="inlineStr">
+        <is>
+          <t>device_177_log_20250721_120153.txt</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H143" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I143" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J143" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K143" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L143" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M143" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N143" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O143" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P143" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q143" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R143" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S143" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="n">
+        <v>105</v>
+      </c>
+      <c r="X143" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>138</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>209</v>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" s="2" t="n">
+        <v>45859.50600011574</v>
+      </c>
+      <c r="E144" s="3" t="inlineStr">
+        <is>
+          <t>device_209_log_20250721_120838.txt</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H144" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I144" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J144" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K144" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L144" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M144" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N144" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O144" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P144" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q144" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R144" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S144" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="n">
+        <v>105</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>181</v>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" s="2" t="n">
+        <v>45859.50896695602</v>
+      </c>
+      <c r="E145" s="3" t="inlineStr">
+        <is>
+          <t>device_181_log_20250721_121254.txt</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="H145" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="I145" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="J145" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="K145" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="L145" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="M145" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="N145" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="O145" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="P145" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="Q145" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="R145" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="S145" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>T01(Firmware Upload)</t>
+        </is>
+      </c>
+      <c r="U145" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>Firmware upload failed</t>
+        </is>
+      </c>
+      <c r="W145" t="n">
+        <v>60</v>
+      </c>
+      <c r="X145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>181</v>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" s="2" t="n">
+        <v>45859.51012800926</v>
+      </c>
+      <c r="E146" s="3" t="inlineStr">
+        <is>
+          <t>device_181_log_20250721_121435.txt</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H146" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I146" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J146" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K146" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L146" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M146" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N146" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O146" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P146" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q146" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R146" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S146" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="n">
+        <v>105</v>
+      </c>
+      <c r="X146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>210</v>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" s="2" t="n">
+        <v>45859.51276739583</v>
+      </c>
+      <c r="E147" s="3" t="inlineStr">
+        <is>
+          <t>device_210_log_20250721_121823.txt</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H147" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I147" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J147" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K147" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L147" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M147" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N147" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O147" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P147" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q147" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R147" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S147" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="n">
+        <v>105</v>
+      </c>
+      <c r="X147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>205</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>111</v>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" s="2" t="n">
+        <v>45859.51768854167</v>
+      </c>
+      <c r="E148" s="3" t="inlineStr">
+        <is>
+          <t>device_111_log_20250721_122528.txt</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H148" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I148" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J148" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K148" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L148" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M148" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N148" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O148" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P148" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q148" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R148" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S148" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="n">
+        <v>105</v>
+      </c>
+      <c r="X148" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>112</v>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" s="2" t="n">
+        <v>45859.52242616898</v>
+      </c>
+      <c r="E149" s="3" t="inlineStr">
+        <is>
+          <t>device_112_log_20250721_123217.txt</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H149" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I149" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J149" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K149" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L149" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M149" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N149" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O149" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P149" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q149" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R149" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S149" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="n">
+        <v>104</v>
+      </c>
+      <c r="X149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>109</v>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" s="2" t="n">
+        <v>45859.52567666666</v>
+      </c>
+      <c r="E150" s="3" t="inlineStr">
+        <is>
+          <t>device_109_log_20250721_123658.txt</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H150" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I150" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J150" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K150" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L150" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M150" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N150" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O150" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P150" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q150" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R150" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S150" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="n">
+        <v>105</v>
+      </c>
+      <c r="X150" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>110</v>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" s="2" t="n">
+        <v>45859.52815652778</v>
+      </c>
+      <c r="E151" s="3" t="inlineStr">
+        <is>
+          <t>device_110_log_20250721_124032.txt</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H151" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I151" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J151" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K151" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L151" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M151" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N151" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O151" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P151" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q151" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R151" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S151" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="n">
+        <v>105</v>
+      </c>
+      <c r="X151" t="n">
+        <v>84</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>43</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>54</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>107</v>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" s="2" t="n">
+        <v>45859.53311701389</v>
+      </c>
+      <c r="E152" s="3" t="inlineStr">
+        <is>
+          <t>device_107_log_20250721_124741.txt</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H152" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I152" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J152" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K152" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L152" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M152" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N152" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O152" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P152" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q152" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R152" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S152" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="n">
+        <v>105</v>
+      </c>
+      <c r="X152" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>163</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>108</v>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" s="2" t="n">
+        <v>45859.53709379629</v>
+      </c>
+      <c r="E153" s="3" t="inlineStr">
+        <is>
+          <t>device_108_log_20250721_125324.txt</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H153" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I153" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J153" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K153" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L153" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M153" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N153" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O153" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P153" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q153" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R153" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S153" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>T14(Camera Detection)</t>
+        </is>
+      </c>
+      <c r="U153" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="n">
+        <v>105</v>
+      </c>
+      <c r="X153" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>142</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>108</v>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" s="2" t="n">
+        <v>45859.54104231481</v>
+      </c>
+      <c r="E154" s="3" t="inlineStr">
+        <is>
+          <t>device_108_log_20250721_125906.txt</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="H154" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="I154" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="J154" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="K154" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="L154" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M154" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="N154" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="O154" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="P154" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="Q154" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="R154" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="S154" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>T14(Camera Detection)</t>
+        </is>
+      </c>
+      <c r="U154" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="n">
+        <v>0</v>
+      </c>
+      <c r="X154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>108</v>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" s="2" t="n">
+        <v>45859.54146577547</v>
+      </c>
+      <c r="E155" s="3" t="inlineStr">
+        <is>
+          <t>device_108_log_20250721_125942.txt</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="H155" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="I155" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="J155" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="K155" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="L155" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="M155" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="N155" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O155" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P155" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q155" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="R155" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S155" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>T14(Camera Detection)</t>
+        </is>
+      </c>
+      <c r="U155" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="n">
+        <v>0</v>
+      </c>
+      <c r="X155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>108</v>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" s="2" t="n">
+        <v>45859.54189459491</v>
+      </c>
+      <c r="E156" s="3" t="inlineStr">
+        <is>
+          <t>device_108_log_20250721_130019.txt</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="H156" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="I156" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="J156" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="K156" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="L156" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="M156" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="N156" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O156" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P156" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q156" s="6" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="R156" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S156" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="n">
+        <v>0</v>
+      </c>
+      <c r="X156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>105</v>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" s="2" t="n">
+        <v>45859.54214025463</v>
+      </c>
+      <c r="E157" s="3" t="inlineStr">
+        <is>
+          <t>device_105_log_20250721_130040.txt</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H157" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I157" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J157" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K157" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L157" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M157" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N157" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O157" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P157" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q157" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R157" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S157" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="n">
+        <v>105</v>
+      </c>
+      <c r="X157" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>102</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>106</v>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" s="2" t="n">
+        <v>45859.54811182871</v>
+      </c>
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>device_106_log_20250721_130916.txt</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H158" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I158" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J158" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K158" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L158" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M158" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N158" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O158" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P158" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q158" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R158" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S158" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="n">
+        <v>105</v>
+      </c>
+      <c r="X158" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>70</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>15</v>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" s="2" t="n">
+        <v>45859.55152375</v>
+      </c>
+      <c r="E159" s="3" t="inlineStr">
+        <is>
+          <t>device_15_log_20250721_131411.txt</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H159" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I159" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J159" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K159" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L159" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M159" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N159" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O159" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P159" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q159" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R159" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S159" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T159" t="inlineStr"/>
+      <c r="U159" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="n">
+        <v>105</v>
+      </c>
+      <c r="X159" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>59</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>16</v>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" s="2" t="n">
+        <v>45859.55461864583</v>
+      </c>
+      <c r="E160" s="3" t="inlineStr">
+        <is>
+          <t>device_16_log_20250721_131839.txt</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H160" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I160" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J160" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K160" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L160" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M160" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N160" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O160" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P160" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q160" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R160" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S160" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="n">
+        <v>105</v>
+      </c>
+      <c r="X160" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>109</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>13</v>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" s="2" t="n">
+        <v>45859.55799866898</v>
+      </c>
+      <c r="E161" s="3" t="inlineStr">
+        <is>
+          <t>device_13_log_20250721_132331.txt</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H161" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I161" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J161" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K161" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L161" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M161" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N161" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O161" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P161" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q161" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R161" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S161" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="n">
+        <v>104</v>
+      </c>
+      <c r="X161" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>187</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>14</v>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" s="2" t="n">
+        <v>45859.56312858796</v>
+      </c>
+      <c r="E162" s="3" t="inlineStr">
+        <is>
+          <t>device_14_log_20250721_133054.txt</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H162" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I162" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J162" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K162" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L162" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M162" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N162" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O162" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P162" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q162" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R162" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S162" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="n">
+        <v>159</v>
+      </c>
+      <c r="X162" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>77</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>11</v>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" s="2" t="n">
+        <v>45859.56715337963</v>
+      </c>
+      <c r="E163" s="3" t="inlineStr">
+        <is>
+          <t>device_11_log_20250721_133642.txt</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H163" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I163" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J163" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K163" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L163" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M163" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N163" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O163" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P163" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q163" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R163" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S163" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T163" t="inlineStr"/>
+      <c r="U163" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="n">
+        <v>104</v>
+      </c>
+      <c r="X163" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>39</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>172</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>11</v>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" s="2" t="n">
+        <v>45859.57509424769</v>
+      </c>
+      <c r="E164" s="3" t="inlineStr">
+        <is>
+          <t>device_11_log_20250721_134808.txt</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H164" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I164" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J164" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K164" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L164" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M164" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N164" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O164" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P164" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q164" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R164" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S164" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T164" t="inlineStr"/>
+      <c r="U164" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="n">
+        <v>115</v>
+      </c>
+      <c r="X164" t="n">
+        <v>84</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>10</v>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" s="2" t="n">
+        <v>45859.57804648148</v>
+      </c>
+      <c r="E165" s="3" t="inlineStr">
+        <is>
+          <t>device_10_log_20250721_135223.txt</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="H165" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="I165" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="J165" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="K165" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="L165" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="M165" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="N165" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="O165" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="P165" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="Q165" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="R165" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="S165" s="7" t="inlineStr">
+        <is>
+          <t>NOT RUN</t>
+        </is>
+      </c>
+      <c r="T165" t="inlineStr">
+        <is>
+          <t>T01(Firmware Upload)</t>
+        </is>
+      </c>
+      <c r="U165" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>Firmware upload failed</t>
+        </is>
+      </c>
+      <c r="W165" t="n">
+        <v>60</v>
+      </c>
+      <c r="X165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>10</v>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" s="2" t="n">
+        <v>45859.57900158565</v>
+      </c>
+      <c r="E166" s="3" t="inlineStr">
+        <is>
+          <t>device_10_log_20250721_135345.txt</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H166" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I166" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J166" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K166" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L166" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M166" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N166" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O166" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P166" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q166" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R166" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S166" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="n">
+        <v>107</v>
+      </c>
+      <c r="X166" t="n">
+        <v>306</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>9</v>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" s="2" t="n">
+        <v>45859.5844183912</v>
+      </c>
+      <c r="E167" s="3" t="inlineStr">
+        <is>
+          <t>device_9_log_20250721_140133.txt</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H167" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I167" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J167" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K167" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L167" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M167" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N167" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O167" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P167" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q167" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R167" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S167" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="n">
+        <v>105</v>
+      </c>
+      <c r="X167" t="n">
+        <v>734</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>12</v>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" s="2" t="n">
+        <v>45859.5947353865</v>
+      </c>
+      <c r="E168" s="3" t="inlineStr">
+        <is>
+          <t>device_12_log_20250721_141625.txt</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H168" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I168" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="J168" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="K168" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L168" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M168" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="N168" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="O168" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="P168" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="Q168" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="R168" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="S168" s="4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U168" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="n">
+        <v>105</v>
+      </c>
+      <c r="X168" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI168" t="n">
         <v>5</v>
       </c>
     </row>
@@ -14958,6 +21865,61 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E111" r:id="rId110"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E112" r:id="rId111"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E113" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E114" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E115" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E116" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E117" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E118" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E119" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E120" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E121" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E122" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E123" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E124" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E125" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E126" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E127" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E128" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E129" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E130" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E131" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E132" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E133" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E134" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E135" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E136" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E137" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E138" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E139" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E140" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E141" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E142" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E143" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E144" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E145" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E146" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E147" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E148" r:id="rId147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E149" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E150" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E151" r:id="rId150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E152" r:id="rId151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E153" r:id="rId152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E154" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E155" r:id="rId154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E156" r:id="rId155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E157" r:id="rId156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E158" r:id="rId157"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E159" r:id="rId158"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E160" r:id="rId159"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E161" r:id="rId160"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E162" r:id="rId161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E163" r:id="rId162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E164" r:id="rId163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E165" r:id="rId164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E166" r:id="rId165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E167" r:id="rId166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E168" r:id="rId167"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
